--- a/assets/files/HWOINK_Template.xlsx
+++ b/assets/files/HWOINK_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2CDA7-359A-4BE6-866B-BB6A81E0081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9634BA-65EB-45F7-8DFB-964AC1E8D791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{85398729-5512-4DAD-BC67-E117291BCF70}"/>
+    <workbookView xWindow="-36915" yWindow="8025" windowWidth="28800" windowHeight="15435" xr2:uid="{85398729-5512-4DAD-BC67-E117291BCF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ROOM</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>CASES ROOM 8</t>
+  </si>
+  <si>
+    <t>VIRUS</t>
+  </si>
+  <si>
+    <t>Influenza A virus</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -148,7 +157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E3E101B-183E-409B-A4DC-F2E0C249353D}" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E3E101B-183E-409B-A4DC-F2E0C249353D}" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:B9" xr:uid="{1E3E101B-183E-409B-A4DC-F2E0C249353D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6DBE607C-4968-4508-BCB8-F7AC9BCBE0CA}" name="ROOM"/>
@@ -159,7 +168,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A5D95ECF-D507-4FAF-8510-0AF7E30EBFA0}" name="Table14" displayName="Table14" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A5D95ECF-D507-4FAF-8510-0AF7E30EBFA0}" name="Table14" displayName="Table14" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D1:D1048576" xr:uid="{A5D95ECF-D507-4FAF-8510-0AF7E30EBFA0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{74A9FD89-871F-4522-BD27-ED122C9B24EA}" name="PATIENT STAYS (DAYS)"/>
@@ -169,8 +178,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7BA1F9B2-AE76-4EC7-A104-D3C1AC453D7F}" name="Table15" displayName="Table15" ref="F1:N1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F1:N1048576" xr:uid="{7BA1F9B2-AE76-4EC7-A104-D3C1AC453D7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7BA1F9B2-AE76-4EC7-A104-D3C1AC453D7F}" name="Table15" displayName="Table15" ref="H1:P1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="H1:P1048576" xr:uid="{7BA1F9B2-AE76-4EC7-A104-D3C1AC453D7F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CB814528-0A53-44F6-B017-CD63F49283EB}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{8A5B8933-CAF9-48C5-8206-AA54C38EA78D}" name="CASES ROOM 1"/>
@@ -181,6 +190,16 @@
     <tableColumn id="7" xr3:uid="{F70B16DD-4AE4-48CF-963E-580B990DEC8A}" name="CASES ROOM 6"/>
     <tableColumn id="8" xr3:uid="{D88C3F9D-AE3F-4F81-8BFB-78085A06615D}" name="CASES ROOM 7"/>
     <tableColumn id="9" xr3:uid="{DBA58004-CFA3-492F-85D2-BE6D95814810}" name="CASES ROOM 8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A35FE443-8821-4468-A407-24544BEA3C93}" name="Table1" displayName="Table1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F1:F2" xr:uid="{A35FE443-8821-4468-A407-24544BEA3C93}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{71380F7D-AF76-462A-8864-4EF65F27CFBB}" name="VIRUS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,21 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6A424F-F5A8-41FF-8142-05B0B5D0B650}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,34 +549,37 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,20 +589,23 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
         <v>45658</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -588,20 +615,20 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>45659</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -611,240 +638,241 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>45660</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>45661</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>45662</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>45663</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>45664</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>